--- a/atomica/library/diabetes_databook.xlsx
+++ b/atomica/library/diabetes_databook.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CBB3BCE-549E-004B-8C11-1D1C6DCEADD8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F0AD6-80F1-45DE-9F9E-5A8DEA2DB09F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="17260" windowHeight="14720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="17265" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,786 +35,363 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{C0FE6AE5-3E8F-EB49-AFC6-794B2614D448}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{EF5B45F8-5688-5F44-A63D-26E43C5A9870}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{3B838C43-921C-7C4B-88FC-294552DFA469}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{03020ADC-4CA3-F344-BCBA-9E917AF7432D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{14C3D478-48C9-4F4D-8789-F1894632879E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A0BD51F6-A308-C34F-BCB7-65BD0B9DD414}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{4693FE61-93E5-8249-AD97-A53F5BC68DF6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{71D24283-417A-4A44-88F3-B65E25062D59}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
 Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="1" shapeId="0" xr:uid="{CFE90A8C-CB24-FB4D-B1E7-CA16B9528F0A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{2CF8937C-0D04-B242-84EA-EFA8E4E65CDF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{5D7241A5-A2EE-AB45-85AD-AA0AA3DE3E10}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{F589FF33-CEBB-8C46-968E-EE3DA7FEAF42}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{D0317EB1-BC9C-5D4C-B4C6-BB9F316659B7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Form 12, 2014. Row 5.8, all adults registered</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{8204DD8E-2119-8C44-A9E4-704CD6A55D98}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Form 12, 2015. Row 5.8, all adults registered</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{13E9F4FE-6A1D-8A4F-8853-D459CAB0174F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Form 12, 2016. Row 5.8, all adults registered</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{A7111BC5-48F2-B149-BDF9-60AAA3AB6C15}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Form 12, 2017. Row 5.8, all adults registered</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="1" shapeId="0" xr:uid="{3E54DDEF-D07A-C046-A786-83E125C408C6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{4BDBD320-D15C-4242-8EF9-62BBF8A9E08F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{5AF7D80C-8748-6348-AE14-E9620E034D0F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{19D6BAE5-39C7-CD4D-A776-B58AF49AEBE3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{53AB2FAD-2084-8046-913C-1AD599F96F67}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="1" shapeId="0" xr:uid="{79FD80EE-CA80-B44B-9344-9C01227B9FE3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="1" shapeId="0" xr:uid="{65219CFE-04A2-904D-99DB-D6301E546C08}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H23" authorId="1" shapeId="0" xr:uid="{1AD3EDA8-85CD-AB43-965A-C6F9B62BC89F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume 80%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume 80%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume 80%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume 80%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Form 12, 2014. Row 5.8, all adults registered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Form 12, 2015. Row 5.8, all adults registered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Form 12, 2016. Row 5.8, all adults registered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Form 12, 2017. Row 5.8, all adults registered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Assume the same proportion as in the pilot study</t>
         </r>
       </text>
     </comment>
@@ -822,539 +406,243 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{8A39A212-44FB-4043-9A33-73DF18F40DE9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Table 3000 form 12 of 2014 (line 5.8) adult diabetes all forms, first time diagnosed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{F056E68E-B899-CD46-BD94-EB23438C2164}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Table 3000 form 12 of 2015 (line 5.8) adult diabetes all forms, first time diagnosed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{8D5E4E95-D355-C048-941A-19DF71BC6B80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Table 3000 form 12 of 2016 (line 5.8) adult diabetes all forms, first time diagnosed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{4349D8FE-AD19-2E48-B3E4-7BD42B544B16}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicole:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Emailed value. Originates from Table 3000 form 12 of 2017 (line 5.8) adult diabetes all forms, first time diagnosed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{C359D85F-73EE-E349-AB2B-5771A66C3E09}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Margaret:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{7EA27433-5E4F-FC43-9ACC-53D3436CD656}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Margaret:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{E81121B7-88FE-274E-B341-830A4AA26D48}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Margaret:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{3ACF577D-D8C6-2643-8D7E-20DE3978CB85}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Margaret:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="1" shapeId="0" xr:uid="{56F4F75A-4F7E-2C48-84CA-C4EE8EC7CC94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 8.4% loss
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{1B7BD88C-4BB7-8845-A0F0-96074715531B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 8.4% loss
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{F362A088-FBEF-5847-A374-79C668BA64EE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 8.4% loss
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{2C29C4DA-8AE2-964D-84FA-B69B55CC4717}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 8.4% loss
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{D6423766-DA18-6142-9CB7-BD5658F27FED}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 7.6% loss
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{5A0E54E9-901A-1744-A688-B8742B9D6453}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 7.6% loss
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="1" shapeId="0" xr:uid="{B947CD50-246A-1C44-8B73-3188EDA5FC78}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 7.6% loss
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="1" shapeId="0" xr:uid="{754340E6-C14A-934A-9591-FBF302FA0F1D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Assume 7.6% loss
-</t>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Table 3000 form 12 of 2014 (line 5.8) adult diabetes all forms, first time diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Table 3000 form 12 of 2015 (line 5.8) adult diabetes all forms, first time diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Table 3000 form 12 of 2016 (line 5.8) adult diabetes all forms, first time diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Nicole:
+Emailed value. Originates from Table 3000 form 12 of 2017 (line 5.8) adult diabetes all forms, first time diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Margaret:
+Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Margaret:
+Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Margaret:
+Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Margaret:
+Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 8.4% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 8.4% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 8.4% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 8.4% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 7.6% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 7.6% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 7.6% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:
+Assume 7.6% loss</t>
         </r>
       </text>
     </comment>
@@ -1371,21 +659,30 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Population size</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
     <t>Unaware &amp; uncomplicated</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>Unaware &amp; vascular damage</t>
   </si>
   <si>
@@ -1404,6 +701,9 @@
     <t>People with HbA1c control</t>
   </si>
   <si>
+    <t>Annual number of births</t>
+  </si>
+  <si>
     <t>Estimated number of new diabetes cases annually</t>
   </si>
   <si>
@@ -1422,6 +722,9 @@
     <t>Annual number newly initiated onto treatment</t>
   </si>
   <si>
+    <t>Treatment failure rate</t>
+  </si>
+  <si>
     <t>Probability</t>
   </si>
   <si>
@@ -1432,28 +735,13 @@
   </si>
   <si>
     <t>Background mortality rate</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Annual number of births</t>
-  </si>
-  <si>
-    <t>Population size</t>
-  </si>
-  <si>
-    <t>Treatment failure rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,45 +756,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2156,12 +1405,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2169,12 +1418,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2193,23 +1442,23 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -2225,17 +1474,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <f>F2*1.001</f>
@@ -2253,15 +1502,15 @@
         <v>1436071.5429479999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -2277,17 +1526,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>10830</v>
@@ -2302,15 +1551,15 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -2326,17 +1575,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>1911</v>
@@ -2351,15 +1600,15 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -2375,17 +1624,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <v>63706</v>
@@ -2400,15 +1649,15 @@
         <v>66163</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -2424,17 +1673,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <f>ROUND(E11*0.8,0)</f>
@@ -2453,15 +1702,15 @@
         <v>52930</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -2477,17 +1726,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2">
         <v>46132</v>
@@ -2502,15 +1751,15 @@
         <v>47911</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -2526,17 +1775,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
         <v>39074</v>
@@ -2551,15 +1800,15 @@
         <v>40580</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -2575,17 +1824,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
         <v>10589</v>
@@ -2666,7 +1915,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B23 B20 B17 B14 B11 B5 B2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8 B23 B20 B17 B14 B11 B5 B2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2686,23 +1935,23 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -2718,38 +1967,38 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <f>ROUND(11/1000*Stocks!F2,0)</f>
         <v>15828</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -2765,17 +2014,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>3769</v>
@@ -2790,18 +2039,18 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -2817,37 +2066,37 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -2863,17 +2112,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <f>ROUND(E5*(1-0.3)/((Stocks!E5+Stocks!E8)/(Stocks!E2+Stocks!E5+Stocks!E8)),0)</f>
@@ -2892,18 +2141,18 @@
         <v>304975</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -2919,17 +2168,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <f>ROUND(E11*((Stocks!E5+Stocks!E8)/(Stocks!E2+Stocks!E5+Stocks!E8))*(1-0.084),0)</f>
@@ -2948,18 +2197,18 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -2975,17 +2224,17 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2">
         <f>ROUND(E14*(1-0.076),0)</f>
@@ -3004,18 +2253,18 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -3031,37 +2280,37 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4">
         <v>0.5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -3077,37 +2326,37 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5">
         <v>0.12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="5"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -3123,37 +2372,37 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
@@ -3169,19 +2418,19 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3270,13 +2519,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B17 B14 B11 B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5 B17 B14 B11 B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B29 B26 B23" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20 B29 B26 B23" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/diabetes_databook.xlsx
+++ b/atomica/library/diabetes_databook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F0AD6-80F1-45DE-9F9E-5A8DEA2DB09F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E64F4-EF4A-4644-BF7E-5285281CC427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="17265" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,52 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
@@ -65,36 +111,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
@@ -115,6 +131,52 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
@@ -125,36 +187,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
@@ -175,6 +207,52 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Stuart:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 80%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Stuart:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 80%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
@@ -185,36 +263,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Robyn Stuart:
-Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Robyn Stuart:
-Assume 80%</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
@@ -250,13 +298,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Form 12, 2016. Row 5.8, all adults registered</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Form 12, 2016. Row 5.8, all adults registered</t>
         </r>
       </text>
     </comment>
@@ -402,41 +458,100 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Robyn Stuart</author>
     <author>Nicole</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Table 3000 form 12 of 2014 (line 5.8) adult diabetes all forms, first time diagnosed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Table 3000 form 12 of 2015 (line 5.8) adult diabetes all forms, first time diagnosed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{27551F5A-1E27-904F-9323-73EF3F6A7A1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Using the birth rate for Ukraine taken from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://knoema.com/atlas/Ukraine/Birth-rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Table 3000 form 12 of 2014 (line 5.8) adult diabetes all forms, first time diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Table 3000 form 12 of 2015 (line 5.8) adult diabetes all forms, first time diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +581,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="E11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -481,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="G11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -496,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="H11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -511,22 +649,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Robyn Margaret:
-Assume a 1% positive screening rate, that we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="E14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 8.4% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="G14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="H14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -571,22 +717,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Microsoft Office User:
-Assume 8.4% loss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="E17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 7.6% loss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -601,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="G17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -616,22 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Microsoft Office User:
-Assume 7.6% loss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="H17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -741,7 +880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +895,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1405,12 +1563,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1439,18 +1597,18 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1632,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1502,7 +1660,7 @@
         <v>1436071.5429479999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1684,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1551,7 +1709,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1733,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1600,7 +1758,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1782,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1649,7 +1807,7 @@
         <v>66163</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1673,7 +1831,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1702,7 +1860,7 @@
         <v>52930</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1884,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1751,7 +1909,7 @@
         <v>47911</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1933,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1800,7 +1958,7 @@
         <v>40580</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1824,7 +1982,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1932,18 +2090,18 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +2125,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1987,10 +2145,10 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2014,7 +2172,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2039,10 +2197,10 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -2066,7 +2224,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2085,10 +2243,10 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2112,7 +2270,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2141,10 +2299,10 @@
         <v>304975</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2326,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2197,10 +2355,10 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
@@ -2224,7 +2382,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2253,10 +2411,10 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2438,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2299,10 +2457,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2484,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2345,10 +2503,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -2372,7 +2530,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -2391,10 +2549,10 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -2418,7 +2576,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>

--- a/atomica/library/diabetes_databook.xlsx
+++ b/atomica/library/diabetes_databook.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/atomica/library/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E64F4-EF4A-4644-BF7E-5285281CC427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702E66AB-57D4-0E4B-84BA-8C91FEA4882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="22860" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -864,9 +870,6 @@
     <t>Treatment failure rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Proportion of those experiencing treatment failure who are offered support</t>
   </si>
   <si>
@@ -874,6 +877,9 @@
   </si>
   <si>
     <t>Background mortality rate</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
   </si>
 </sst>
 </file>
@@ -1006,6 +1012,11 @@
   <dxfs count="36">
     <dxf>
       <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -1037,11 +1048,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -1066,6 +1072,11 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -1081,11 +1092,6 @@
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -1234,9 +1240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1274,9 +1280,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1309,26 +1315,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,26 +1350,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2008,68 +1980,68 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="2">
+      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="33" priority="3">
+      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="4">
+      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="31" priority="5">
+      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="6">
+      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="29" priority="3">
-      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
-      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="25" priority="5">
-      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
-      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="23" priority="7">
-      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
-      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2090,7 +2062,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B29" activeCellId="2" sqref="B23 B26 B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2444,7 +2416,7 @@
         <v>adults</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
         <v>0.5</v>
@@ -2462,7 +2434,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -2490,7 +2462,7 @@
         <v>adults</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5">
         <v>0.12</v>
@@ -2508,7 +2480,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -2536,7 +2508,7 @@
         <v>adults</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4">
         <v>2.5000000000000001E-2</v>
@@ -2554,7 +2526,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -2582,7 +2554,7 @@
         <v>adults</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
         <v>1.4999999999999999E-2</v>
@@ -2596,84 +2568,84 @@
       <c r="H29" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="2">
+      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="23">
+      <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="5" priority="18">
+      <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20">
-      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="7" priority="21">
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
-      <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="23">
-      <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -2683,8 +2655,8 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20 B29 B26 B23" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>"Probability"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20 B26 B23 B29" xr:uid="{669E68E0-C454-E74F-9469-4AD1ACD233EA}">
+      <formula1>"Rate (per year)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
